--- a/biology/Zoologie/Enterobius/Enterobius.xlsx
+++ b/biology/Zoologie/Enterobius/Enterobius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Enterobius est un genre de vers nématodes parasite de la famille des Oxyuridae. L'espèce Enterobius vermicularis est responsable de l'oxyurose chez l'humain.
 </t>
@@ -511,7 +523,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Enterobius (Colobenterobius) Quentin, Bellerton &amp; Krishnasamy, 1980
 Enterobius bipapillatus Gedoelst, 1916
@@ -565,12 +579,14 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (26 mars 2011)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (26 mars 2011) :
 Enterobius anthropopitheci
 Enterobius vermicularis
-Selon ITIS      (26 mars 2011)[2] :
+Selon ITIS      (26 mars 2011) :
 Enterobius vermicularis</t>
         </is>
       </c>
@@ -599,7 +615,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Baird, 1853 : Catalogue of the species of Entozoa, or intestinal worms, contained in the collection of the British Museum. p. 1-132.</t>
         </is>
